--- a/2.Excel/hands-on/6.Funcoes_Mercado/8.SEERRO/1.SEERRO_Procurar_Base.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/8.SEERRO/1.SEERRO_Procurar_Base.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\8.SEERRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55371E3E-F9B0-4D6E-8AA4-7CCF9B8CD409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075ED16A-6C45-4EEA-ADE1-5CC1CFF2B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SEERRO" sheetId="2" r:id="rId1"/>
-    <sheet name="CODIGO" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="CODIGO" sheetId="3" r:id="rId2"/>
     <sheet name="PROCH" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -3779,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37263547-D7E7-4AC6-B262-BC90CCAE7898}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4088,7 +4088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B20CA-2351-4EBE-9519-404D36C01D57}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4142,11 +4144,11 @@
         <v>1070</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="I2" s="12" t="str">
-        <f>IFERROR(VLOOKUP(H2,B:F,5,0),IFERROR(VLOOKUP(H2,C:F,4,0),IFERROR(VLOOKUP(H2,D:F,3,0),IFERROR(VLOOKUP(H2,E:F,2,0),"Não encontrado"))))</f>
-        <v>Microsoft</v>
+        <f>IFERROR(VLOOKUP(H2,B2:F208,5,0),IFERROR(VLOOKUP(H2,C2:F208,4,0),IFERROR(VLOOKUP(H2,D2:F208,3,0),IFERROR(VLOOKUP(H2,E2:F208,2,0),"Não encontrado"))))</f>
+        <v>Nokia</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/2.Excel/hands-on/6.Funcoes_Mercado/8.SEERRO/1.SEERRO_Procurar_Base.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/8.SEERRO/1.SEERRO_Procurar_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\8.SEERRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075ED16A-6C45-4EEA-ADE1-5CC1CFF2B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2548C6C-99C0-4B3B-A412-EC0B5C84DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="11664" yWindow="36" windowWidth="11376" windowHeight="12792" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SEERRO" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1098">
   <si>
     <t>Nome</t>
   </si>
@@ -4088,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B20CA-2351-4EBE-9519-404D36C01D57}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4144,11 +4144,11 @@
         <v>1070</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>IFERROR(VLOOKUP(H2,B2:F208,5,0),IFERROR(VLOOKUP(H2,C2:F208,4,0),IFERROR(VLOOKUP(H2,D2:F208,3,0),IFERROR(VLOOKUP(H2,E2:F208,2,0),"Não encontrado"))))</f>
-        <v>Nokia</v>
+        <v>Grow</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -8281,7 +8281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8321,6 +8323,9 @@
       <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -8350,6 +8355,9 @@
       <c r="J3" s="6">
         <v>294</v>
       </c>
+      <c r="K3" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -8379,6 +8387,9 @@
       <c r="J4" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -8408,6 +8419,9 @@
       <c r="J5" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -8437,7 +8451,9 @@
       <c r="J6" s="7">
         <v>16756</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="7">
+        <v>10000</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -8446,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -8454,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>HLOOKUP(C8,2:6,3,0)</f>
+        <f>HLOOKUP(C8,C2:K6,3,0)</f>
         <v>Preta</v>
       </c>
     </row>
@@ -8471,13 +8487,14 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
+        <f>HLOOKUP(C11,C3:K6,4,0)</f>
         <v>22529</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{7EC37ED9-4858-4A6D-A6B7-E3E6EE305B5F}">
-      <formula1>$C$2:$J$2</formula1>
+      <formula1>$2:$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{3308EAC2-0C5B-48F2-A811-0E5787FDDAB7}">
       <formula1>$C$3:$J$3</formula1>
